--- a/NhanKhau2023-01-30.xlsx
+++ b/NhanKhau2023-01-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="677">
   <si>
     <t>STT</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>632476007999</t>
+  </si>
+  <si>
+    <t>Tạm trú</t>
   </si>
   <si>
     <t>Vũ Anh Đức</t>
@@ -5101,7 +5104,7 @@
         <v>137</v>
       </c>
       <c r="Q27" s="48" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
@@ -5109,7 +5112,7 @@
         <v>24.0</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="49" t="n">
@@ -5134,13 +5137,13 @@
         <v>23</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N28" s="49" t="n">
         <v>44736.0</v>
@@ -5160,7 +5163,7 @@
         <v>25.0</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="51" t="n">
@@ -5185,13 +5188,13 @@
         <v>23</v>
       </c>
       <c r="K29" s="52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" s="52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M29" s="52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N29" s="51" t="n">
         <v>44347.0</v>
@@ -5211,7 +5214,7 @@
         <v>26.0</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="53" t="n">
@@ -5236,13 +5239,13 @@
         <v>23</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M30" s="54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N30" s="53" t="n">
         <v>44915.0</v>
@@ -5262,22 +5265,22 @@
         <v>27.0</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D31" s="55" t="n">
         <v>37458.0</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H31" s="56" t="s">
         <v>21</v>
@@ -5289,13 +5292,13 @@
         <v>23</v>
       </c>
       <c r="K31" s="56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M31" s="56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N31" s="55" t="n">
         <v>44523.0</v>
@@ -5304,7 +5307,7 @@
         <v>43812.0</v>
       </c>
       <c r="P31" s="56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="56" t="s">
         <v>37</v>
@@ -5315,7 +5318,7 @@
         <v>28.0</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" s="58"/>
       <c r="D32" s="57" t="n">
@@ -5346,7 +5349,7 @@
         <v>134</v>
       </c>
       <c r="M32" s="58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N32" s="57" t="n">
         <v>44736.0</v>
@@ -5366,7 +5369,7 @@
         <v>29.0</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="59" t="n">
@@ -5391,13 +5394,13 @@
         <v>23</v>
       </c>
       <c r="K33" s="60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L33" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M33" s="60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N33" s="59" t="n">
         <v>44347.0</v>
@@ -5417,7 +5420,7 @@
         <v>30.0</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C34" s="62"/>
       <c r="D34" s="61" t="n">
@@ -5427,10 +5430,10 @@
         <v>18</v>
       </c>
       <c r="F34" s="62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H34" s="62" t="s">
         <v>21</v>
@@ -5442,13 +5445,13 @@
         <v>23</v>
       </c>
       <c r="K34" s="62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L34" s="62" t="s">
         <v>110</v>
       </c>
       <c r="M34" s="62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N34" s="61" t="n">
         <v>44915.0</v>
@@ -5457,7 +5460,7 @@
         <v>43811.0</v>
       </c>
       <c r="P34" s="62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34" s="62" t="s">
         <v>28</v>
@@ -5468,7 +5471,7 @@
         <v>31.0</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="63" t="n">
@@ -5493,13 +5496,13 @@
         <v>23</v>
       </c>
       <c r="K35" s="64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M35" s="64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N35" s="63" t="n">
         <v>44523.0</v>
@@ -5519,7 +5522,7 @@
         <v>32.0</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C36" s="66"/>
       <c r="D36" s="65" t="n">
@@ -5544,13 +5547,13 @@
         <v>23</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L36" s="66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M36" s="66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N36" s="65" t="n">
         <v>44736.0</v>
@@ -5570,7 +5573,7 @@
         <v>33.0</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="67" t="n">
@@ -5595,13 +5598,13 @@
         <v>23</v>
       </c>
       <c r="K37" s="68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L37" s="68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M37" s="68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N37" s="67" t="n">
         <v>44347.0</v>
@@ -5621,7 +5624,7 @@
         <v>34.0</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C38" s="70"/>
       <c r="D38" s="69" t="n">
@@ -5631,10 +5634,10 @@
         <v>18</v>
       </c>
       <c r="F38" s="70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H38" s="70" t="s">
         <v>21</v>
@@ -5646,13 +5649,13 @@
         <v>23</v>
       </c>
       <c r="K38" s="70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L38" s="70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M38" s="70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N38" s="69" t="n">
         <v>44915.0</v>
@@ -5661,7 +5664,7 @@
         <v>43811.0</v>
       </c>
       <c r="P38" s="70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q38" s="70" t="s">
         <v>28</v>
@@ -5672,7 +5675,7 @@
         <v>35.0</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C39" s="72"/>
       <c r="D39" s="71" t="n">
@@ -5697,13 +5700,13 @@
         <v>23</v>
       </c>
       <c r="K39" s="72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L39" s="72" t="s">
         <v>134</v>
       </c>
       <c r="M39" s="72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N39" s="71" t="n">
         <v>44523.0</v>
@@ -5723,7 +5726,7 @@
         <v>36.0</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="73" t="n">
@@ -5733,10 +5736,10 @@
         <v>18</v>
       </c>
       <c r="F40" s="74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H40" s="74" t="s">
         <v>21</v>
@@ -5748,13 +5751,13 @@
         <v>23</v>
       </c>
       <c r="K40" s="74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L40" s="74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M40" s="74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N40" s="73" t="n">
         <v>44736.0</v>
@@ -5763,7 +5766,7 @@
         <v>43748.0</v>
       </c>
       <c r="P40" s="74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q40" s="74" t="s">
         <v>28</v>
@@ -5774,7 +5777,7 @@
         <v>37.0</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="75" t="n">
@@ -5799,13 +5802,13 @@
         <v>23</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L41" s="76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M41" s="76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N41" s="75" t="n">
         <v>44347.0</v>
@@ -5825,7 +5828,7 @@
         <v>38.0</v>
       </c>
       <c r="B42" s="78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="77" t="n">
@@ -5850,13 +5853,13 @@
         <v>23</v>
       </c>
       <c r="K42" s="78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L42" s="78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M42" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N42" s="77" t="n">
         <v>44915.0</v>
@@ -5876,7 +5879,7 @@
         <v>39.0</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C43" s="80"/>
       <c r="D43" s="79" t="n">
@@ -5901,13 +5904,13 @@
         <v>23</v>
       </c>
       <c r="K43" s="80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L43" s="80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M43" s="80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N43" s="79" t="n">
         <v>44523.0</v>
@@ -5927,7 +5930,7 @@
         <v>40.0</v>
       </c>
       <c r="B44" s="82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C44" s="82"/>
       <c r="D44" s="81" t="n">
@@ -5952,13 +5955,13 @@
         <v>23</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L44" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M44" s="82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N44" s="81" t="n">
         <v>44736.0</v>
@@ -5978,7 +5981,7 @@
         <v>41.0</v>
       </c>
       <c r="B45" s="84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C45" s="84"/>
       <c r="D45" s="83" t="n">
@@ -5988,10 +5991,10 @@
         <v>18</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G45" s="84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H45" s="84" t="s">
         <v>21</v>
@@ -6003,13 +6006,13 @@
         <v>23</v>
       </c>
       <c r="K45" s="84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L45" s="84" t="s">
         <v>130</v>
       </c>
       <c r="M45" s="84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N45" s="83" t="n">
         <v>44347.0</v>
@@ -6018,7 +6021,7 @@
         <v>43810.0</v>
       </c>
       <c r="P45" s="84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q45" s="84" t="s">
         <v>28</v>
@@ -6029,7 +6032,7 @@
         <v>42.0</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C46" s="86"/>
       <c r="D46" s="85" t="n">
@@ -6054,13 +6057,13 @@
         <v>23</v>
       </c>
       <c r="K46" s="86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L46" s="86" t="s">
         <v>130</v>
       </c>
       <c r="M46" s="86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N46" s="85" t="n">
         <v>44915.0</v>
@@ -6080,7 +6083,7 @@
         <v>43.0</v>
       </c>
       <c r="B47" s="88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C47" s="88"/>
       <c r="D47" s="87" t="n">
@@ -6105,13 +6108,13 @@
         <v>23</v>
       </c>
       <c r="K47" s="88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" s="88" t="s">
         <v>130</v>
       </c>
       <c r="M47" s="88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N47" s="87" t="n">
         <v>44523.0</v>
@@ -6131,7 +6134,7 @@
         <v>44.0</v>
       </c>
       <c r="B48" s="90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C48" s="90"/>
       <c r="D48" s="89" t="n">
@@ -6156,13 +6159,13 @@
         <v>23</v>
       </c>
       <c r="K48" s="90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L48" s="90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M48" s="90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N48" s="89" t="n">
         <v>44736.0</v>
@@ -6182,7 +6185,7 @@
         <v>45.0</v>
       </c>
       <c r="B49" s="92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C49" s="92"/>
       <c r="D49" s="91" t="n">
@@ -6192,10 +6195,10 @@
         <v>18</v>
       </c>
       <c r="F49" s="92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G49" s="92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H49" s="92" t="s">
         <v>21</v>
@@ -6207,13 +6210,13 @@
         <v>23</v>
       </c>
       <c r="K49" s="92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L49" s="92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M49" s="92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N49" s="91" t="n">
         <v>44347.0</v>
@@ -6222,7 +6225,7 @@
         <v>43810.0</v>
       </c>
       <c r="P49" s="92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49" s="92" t="s">
         <v>28</v>
@@ -6233,7 +6236,7 @@
         <v>46.0</v>
       </c>
       <c r="B50" s="94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C50" s="94"/>
       <c r="D50" s="93" t="n">
@@ -6243,10 +6246,10 @@
         <v>18</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H50" s="94" t="s">
         <v>21</v>
@@ -6258,13 +6261,13 @@
         <v>23</v>
       </c>
       <c r="K50" s="94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L50" s="94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M50" s="94" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N50" s="93" t="n">
         <v>44915.0</v>
@@ -6273,7 +6276,7 @@
         <v>43811.0</v>
       </c>
       <c r="P50" s="94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q50" s="94" t="s">
         <v>28</v>
@@ -6284,7 +6287,7 @@
         <v>47.0</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C51" s="96"/>
       <c r="D51" s="95" t="n">
@@ -6309,13 +6312,13 @@
         <v>23</v>
       </c>
       <c r="K51" s="96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L51" s="96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M51" s="96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N51" s="95" t="n">
         <v>44523.0</v>
@@ -6335,10 +6338,10 @@
         <v>48.0</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D52" s="97" t="n">
         <v>37537.0</v>
@@ -6347,10 +6350,10 @@
         <v>18</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G52" s="98" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H52" s="98" t="s">
         <v>21</v>
@@ -6362,13 +6365,13 @@
         <v>23</v>
       </c>
       <c r="K52" s="98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L52" s="98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M52" s="98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N52" s="97" t="n">
         <v>44736.0</v>
@@ -6377,7 +6380,7 @@
         <v>43810.0</v>
       </c>
       <c r="P52" s="98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52" s="98" t="s">
         <v>37</v>
@@ -6388,10 +6391,10 @@
         <v>49.0</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C53" s="100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D53" s="99" t="n">
         <v>37331.0</v>
@@ -6400,7 +6403,7 @@
         <v>30</v>
       </c>
       <c r="F53" s="100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G53" s="100" t="s">
         <v>72</v>
@@ -6409,19 +6412,19 @@
         <v>21</v>
       </c>
       <c r="I53" s="100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J53" s="100" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L53" s="100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M53" s="100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N53" s="99" t="n">
         <v>44347.0</v>
@@ -6430,7 +6433,7 @@
         <v>43811.0</v>
       </c>
       <c r="P53" s="100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q53" s="100" t="s">
         <v>28</v>
@@ -6441,10 +6444,10 @@
         <v>50.0</v>
       </c>
       <c r="B54" s="102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" s="102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D54" s="101" t="n">
         <v>37548.0</v>
@@ -6453,7 +6456,7 @@
         <v>18</v>
       </c>
       <c r="F54" s="102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G54" s="102" t="s">
         <v>101</v>
@@ -6468,13 +6471,13 @@
         <v>23</v>
       </c>
       <c r="K54" s="102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L54" s="102" t="s">
         <v>116</v>
       </c>
       <c r="M54" s="102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N54" s="101" t="n">
         <v>44915.0</v>
@@ -6483,7 +6486,7 @@
         <v>43812.0</v>
       </c>
       <c r="P54" s="102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q54" s="102" t="s">
         <v>28</v>
@@ -6494,10 +6497,10 @@
         <v>51.0</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D55" s="103" t="n">
         <v>28842.0</v>
@@ -6521,13 +6524,13 @@
         <v>23</v>
       </c>
       <c r="K55" s="104" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L55" s="104" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M55" s="104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N55" s="103" t="n">
         <v>43111.0</v>
@@ -6547,10 +6550,10 @@
         <v>52.0</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C56" s="106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D56" s="105" t="n">
         <v>26839.0</v>
@@ -6568,7 +6571,7 @@
         <v>21</v>
       </c>
       <c r="I56" s="106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J56" s="106" t="s">
         <v>23</v>
@@ -6600,10 +6603,10 @@
         <v>53.0</v>
       </c>
       <c r="B57" s="108" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" s="108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D57" s="107" t="n">
         <v>29130.0</v>
@@ -6627,10 +6630,10 @@
         <v>23</v>
       </c>
       <c r="K57" s="108" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L57" s="108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M57" s="108" t="s">
         <v>111</v>
@@ -6653,10 +6656,10 @@
         <v>54.0</v>
       </c>
       <c r="B58" s="110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C58" s="110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D58" s="109" t="n">
         <v>44702.0</v>
@@ -6665,13 +6668,13 @@
         <v>18</v>
       </c>
       <c r="F58" s="110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G58" s="110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H58" s="110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I58" s="110" t="s">
         <v>22</v>
@@ -6683,10 +6686,10 @@
         <v>78</v>
       </c>
       <c r="L58" s="110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M58" s="110" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N58" s="109" t="n">
         <v>38006.0</v>
@@ -6695,7 +6698,7 @@
         <v>43506.0</v>
       </c>
       <c r="P58" s="110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58" s="110" t="s">
         <v>28</v>
@@ -6706,10 +6709,10 @@
         <v>55.0</v>
       </c>
       <c r="B59" s="112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C59" s="112" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D59" s="111" t="n">
         <v>39267.0</v>
@@ -6718,16 +6721,16 @@
         <v>30</v>
       </c>
       <c r="F59" s="112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H59" s="112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I59" s="112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J59" s="112" t="s">
         <v>23</v>
@@ -6736,10 +6739,10 @@
         <v>78</v>
       </c>
       <c r="L59" s="112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M59" s="112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N59" s="111" t="n">
         <v>38159.0</v>
@@ -6748,7 +6751,7 @@
         <v>40135.0</v>
       </c>
       <c r="P59" s="112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q59" s="112" t="s">
         <v>28</v>
@@ -6759,10 +6762,10 @@
         <v>56.0</v>
       </c>
       <c r="B60" s="114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C60" s="114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D60" s="113" t="n">
         <v>39271.0</v>
@@ -6771,16 +6774,16 @@
         <v>18</v>
       </c>
       <c r="F60" s="114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G60" s="114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H60" s="114" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I60" s="114" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J60" s="114" t="s">
         <v>23</v>
@@ -6789,10 +6792,10 @@
         <v>78</v>
       </c>
       <c r="L60" s="114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M60" s="114" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N60" s="113" t="n">
         <v>36849.0</v>
@@ -6801,7 +6804,7 @@
         <v>42158.0</v>
       </c>
       <c r="P60" s="114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60" s="114" t="s">
         <v>28</v>
@@ -6812,10 +6815,10 @@
         <v>57.0</v>
       </c>
       <c r="B61" s="116" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C61" s="116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D61" s="115" t="n">
         <v>44335.0</v>
@@ -6824,13 +6827,13 @@
         <v>18</v>
       </c>
       <c r="F61" s="116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G61" s="116" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H61" s="116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I61" s="116" t="s">
         <v>22</v>
@@ -6842,10 +6845,10 @@
         <v>78</v>
       </c>
       <c r="L61" s="116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M61" s="116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N61" s="115" t="n">
         <v>40773.0</v>
@@ -6854,7 +6857,7 @@
         <v>37952.0</v>
       </c>
       <c r="P61" s="116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q61" s="116" t="s">
         <v>28</v>
@@ -6865,10 +6868,10 @@
         <v>58.0</v>
       </c>
       <c r="B62" s="118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C62" s="118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D62" s="117" t="n">
         <v>43988.0</v>
@@ -6877,13 +6880,13 @@
         <v>18</v>
       </c>
       <c r="F62" s="118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G62" s="118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H62" s="118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I62" s="118" t="s">
         <v>22</v>
@@ -6895,10 +6898,10 @@
         <v>78</v>
       </c>
       <c r="L62" s="118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M62" s="118" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N62" s="117" t="n">
         <v>42676.0</v>
@@ -6907,7 +6910,7 @@
         <v>38021.0</v>
       </c>
       <c r="P62" s="118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q62" s="118" t="s">
         <v>28</v>
@@ -6918,10 +6921,10 @@
         <v>59.0</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C63" s="120" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D63" s="119" t="n">
         <v>42081.0</v>
@@ -6930,13 +6933,13 @@
         <v>30</v>
       </c>
       <c r="F63" s="120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G63" s="120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H63" s="120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I63" s="120" t="s">
         <v>22</v>
@@ -6948,10 +6951,10 @@
         <v>78</v>
       </c>
       <c r="L63" s="120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M63" s="120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N63" s="119" t="n">
         <v>42899.0</v>
@@ -6960,7 +6963,7 @@
         <v>39490.0</v>
       </c>
       <c r="P63" s="120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q63" s="120" t="s">
         <v>28</v>
@@ -6971,10 +6974,10 @@
         <v>60.0</v>
       </c>
       <c r="B64" s="122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C64" s="122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D64" s="121" t="n">
         <v>38643.0</v>
@@ -6983,13 +6986,13 @@
         <v>30</v>
       </c>
       <c r="F64" s="122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G64" s="122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H64" s="122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I64" s="122" t="s">
         <v>22</v>
@@ -7001,10 +7004,10 @@
         <v>78</v>
       </c>
       <c r="L64" s="122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M64" s="122" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N64" s="121" t="n">
         <v>41131.0</v>
@@ -7013,7 +7016,7 @@
         <v>37688.0</v>
       </c>
       <c r="P64" s="122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q64" s="122" t="s">
         <v>28</v>
@@ -7024,10 +7027,10 @@
         <v>61.0</v>
       </c>
       <c r="B65" s="124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C65" s="124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D65" s="123" t="n">
         <v>38412.0</v>
@@ -7036,13 +7039,13 @@
         <v>30</v>
       </c>
       <c r="F65" s="124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G65" s="124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I65" s="124" t="s">
         <v>22</v>
@@ -7054,10 +7057,10 @@
         <v>78</v>
       </c>
       <c r="L65" s="124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M65" s="124" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N65" s="123" t="n">
         <v>42838.0</v>
@@ -7066,7 +7069,7 @@
         <v>40549.0</v>
       </c>
       <c r="P65" s="124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q65" s="124" t="s">
         <v>28</v>
@@ -7077,10 +7080,10 @@
         <v>62.0</v>
       </c>
       <c r="B66" s="126" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D66" s="125" t="n">
         <v>40183.0</v>
@@ -7089,13 +7092,13 @@
         <v>18</v>
       </c>
       <c r="F66" s="126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G66" s="126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H66" s="126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I66" s="126" t="s">
         <v>22</v>
@@ -7107,10 +7110,10 @@
         <v>78</v>
       </c>
       <c r="L66" s="126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M66" s="126" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N66" s="125" t="n">
         <v>39680.0</v>
@@ -7119,7 +7122,7 @@
         <v>42168.0</v>
       </c>
       <c r="P66" s="126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q66" s="126" t="s">
         <v>28</v>
@@ -7130,10 +7133,10 @@
         <v>63.0</v>
       </c>
       <c r="B67" s="128" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C67" s="128" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D67" s="127" t="n">
         <v>40478.0</v>
@@ -7142,13 +7145,13 @@
         <v>18</v>
       </c>
       <c r="F67" s="128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G67" s="128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H67" s="128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I67" s="128" t="s">
         <v>22</v>
@@ -7160,10 +7163,10 @@
         <v>78</v>
       </c>
       <c r="L67" s="128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M67" s="128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N67" s="127" t="n">
         <v>41344.0</v>
@@ -7172,7 +7175,7 @@
         <v>37553.0</v>
       </c>
       <c r="P67" s="128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q67" s="128" t="s">
         <v>28</v>
@@ -7183,10 +7186,10 @@
         <v>64.0</v>
       </c>
       <c r="B68" s="130" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C68" s="130" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D68" s="129" t="n">
         <v>42610.0</v>
@@ -7195,13 +7198,13 @@
         <v>30</v>
       </c>
       <c r="F68" s="130" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G68" s="130" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H68" s="130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I68" s="130" t="s">
         <v>22</v>
@@ -7213,10 +7216,10 @@
         <v>78</v>
       </c>
       <c r="L68" s="130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M68" s="130" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N68" s="129" t="n">
         <v>42077.0</v>
@@ -7225,7 +7228,7 @@
         <v>37188.0</v>
       </c>
       <c r="P68" s="130" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q68" s="130" t="s">
         <v>28</v>
@@ -7236,10 +7239,10 @@
         <v>65.0</v>
       </c>
       <c r="B69" s="132" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C69" s="132" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D69" s="131" t="n">
         <v>39054.0</v>
@@ -7248,13 +7251,13 @@
         <v>18</v>
       </c>
       <c r="F69" s="132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G69" s="132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H69" s="132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I69" s="132" t="s">
         <v>22</v>
@@ -7266,10 +7269,10 @@
         <v>78</v>
       </c>
       <c r="L69" s="132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M69" s="132" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N69" s="131" t="n">
         <v>38522.0</v>
@@ -7278,7 +7281,7 @@
         <v>42959.0</v>
       </c>
       <c r="P69" s="132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q69" s="132" t="s">
         <v>28</v>
@@ -7289,10 +7292,10 @@
         <v>66.0</v>
       </c>
       <c r="B70" s="134" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C70" s="134" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D70" s="133" t="n">
         <v>44553.0</v>
@@ -7301,16 +7304,16 @@
         <v>30</v>
       </c>
       <c r="F70" s="134" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G70" s="134" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H70" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I70" s="134" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J70" s="134" t="s">
         <v>23</v>
@@ -7319,10 +7322,10 @@
         <v>78</v>
       </c>
       <c r="L70" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M70" s="134" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N70" s="133" t="n">
         <v>41013.0</v>
@@ -7331,7 +7334,7 @@
         <v>40664.0</v>
       </c>
       <c r="P70" s="134" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q70" s="134" t="s">
         <v>28</v>
@@ -7342,10 +7345,10 @@
         <v>67.0</v>
       </c>
       <c r="B71" s="136" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C71" s="136" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D71" s="135" t="n">
         <v>40422.0</v>
@@ -7354,13 +7357,13 @@
         <v>18</v>
       </c>
       <c r="F71" s="136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G71" s="136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H71" s="136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I71" s="136" t="s">
         <v>22</v>
@@ -7372,10 +7375,10 @@
         <v>78</v>
       </c>
       <c r="L71" s="136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M71" s="136" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N71" s="135" t="n">
         <v>43608.0</v>
@@ -7384,7 +7387,7 @@
         <v>43807.0</v>
       </c>
       <c r="P71" s="136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q71" s="136" t="s">
         <v>28</v>
@@ -7395,10 +7398,10 @@
         <v>68.0</v>
       </c>
       <c r="B72" s="138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C72" s="138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D72" s="137" t="n">
         <v>38555.0</v>
@@ -7407,13 +7410,13 @@
         <v>18</v>
       </c>
       <c r="F72" s="138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G72" s="138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H72" s="138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I72" s="138" t="s">
         <v>22</v>
@@ -7425,10 +7428,10 @@
         <v>78</v>
       </c>
       <c r="L72" s="138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M72" s="138" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N72" s="137" t="n">
         <v>42415.0</v>
@@ -7437,7 +7440,7 @@
         <v>39336.0</v>
       </c>
       <c r="P72" s="138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q72" s="138" t="s">
         <v>28</v>
@@ -7448,10 +7451,10 @@
         <v>69.0</v>
       </c>
       <c r="B73" s="140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C73" s="140" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D73" s="139" t="n">
         <v>42838.0</v>
@@ -7460,13 +7463,13 @@
         <v>30</v>
       </c>
       <c r="F73" s="140" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G73" s="140" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H73" s="140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I73" s="140" t="s">
         <v>22</v>
@@ -7478,10 +7481,10 @@
         <v>78</v>
       </c>
       <c r="L73" s="140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M73" s="140" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N73" s="139" t="n">
         <v>42642.0</v>
@@ -7490,7 +7493,7 @@
         <v>39867.0</v>
       </c>
       <c r="P73" s="140" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q73" s="140" t="s">
         <v>28</v>
@@ -7501,10 +7504,10 @@
         <v>70.0</v>
       </c>
       <c r="B74" s="142" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C74" s="142" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D74" s="141" t="n">
         <v>44684.0</v>
@@ -7513,13 +7516,13 @@
         <v>18</v>
       </c>
       <c r="F74" s="142" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G74" s="142" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H74" s="142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I74" s="142" t="s">
         <v>22</v>
@@ -7531,10 +7534,10 @@
         <v>78</v>
       </c>
       <c r="L74" s="142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M74" s="142" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N74" s="141" t="n">
         <v>40436.0</v>
@@ -7543,7 +7546,7 @@
         <v>43745.0</v>
       </c>
       <c r="P74" s="142" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q74" s="142" t="s">
         <v>28</v>
@@ -7554,10 +7557,10 @@
         <v>71.0</v>
       </c>
       <c r="B75" s="144" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C75" s="144" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D75" s="143" t="n">
         <v>40167.0</v>
@@ -7566,13 +7569,13 @@
         <v>18</v>
       </c>
       <c r="F75" s="144" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G75" s="144" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H75" s="144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I75" s="144" t="s">
         <v>22</v>
@@ -7584,10 +7587,10 @@
         <v>78</v>
       </c>
       <c r="L75" s="144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M75" s="144" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N75" s="143" t="n">
         <v>37280.0</v>
@@ -7596,7 +7599,7 @@
         <v>42492.0</v>
       </c>
       <c r="P75" s="144" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q75" s="144" t="s">
         <v>28</v>
@@ -7607,10 +7610,10 @@
         <v>72.0</v>
       </c>
       <c r="B76" s="146" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C76" s="146" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D76" s="145" t="n">
         <v>42482.0</v>
@@ -7619,13 +7622,13 @@
         <v>30</v>
       </c>
       <c r="F76" s="146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G76" s="146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H76" s="146" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I76" s="146" t="s">
         <v>22</v>
@@ -7637,10 +7640,10 @@
         <v>78</v>
       </c>
       <c r="L76" s="146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M76" s="146" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N76" s="145" t="n">
         <v>39893.0</v>
@@ -7649,7 +7652,7 @@
         <v>39367.0</v>
       </c>
       <c r="P76" s="146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q76" s="146" t="s">
         <v>28</v>
@@ -7660,10 +7663,10 @@
         <v>73.0</v>
       </c>
       <c r="B77" s="148" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C77" s="148" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D77" s="147" t="n">
         <v>43557.0</v>
@@ -7672,13 +7675,13 @@
         <v>18</v>
       </c>
       <c r="F77" s="148" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G77" s="148" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H77" s="148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I77" s="148" t="s">
         <v>22</v>
@@ -7690,10 +7693,10 @@
         <v>78</v>
       </c>
       <c r="L77" s="148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M77" s="148" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N77" s="147" t="n">
         <v>39887.0</v>
@@ -7702,7 +7705,7 @@
         <v>40336.0</v>
       </c>
       <c r="P77" s="148" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q77" s="148" t="s">
         <v>28</v>
@@ -7713,10 +7716,10 @@
         <v>74.0</v>
       </c>
       <c r="B78" s="150" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C78" s="150" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D78" s="149" t="n">
         <v>39959.0</v>
@@ -7725,13 +7728,13 @@
         <v>30</v>
       </c>
       <c r="F78" s="150" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G78" s="150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H78" s="150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I78" s="150" t="s">
         <v>22</v>
@@ -7743,10 +7746,10 @@
         <v>78</v>
       </c>
       <c r="L78" s="150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M78" s="150" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N78" s="149" t="n">
         <v>39877.0</v>
@@ -7755,7 +7758,7 @@
         <v>43112.0</v>
       </c>
       <c r="P78" s="150" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q78" s="150" t="s">
         <v>28</v>
@@ -7766,10 +7769,10 @@
         <v>75.0</v>
       </c>
       <c r="B79" s="152" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C79" s="152" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D79" s="151" t="n">
         <v>38903.0</v>
@@ -7778,13 +7781,13 @@
         <v>30</v>
       </c>
       <c r="F79" s="152" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G79" s="152" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H79" s="152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I79" s="152" t="s">
         <v>22</v>
@@ -7796,10 +7799,10 @@
         <v>78</v>
       </c>
       <c r="L79" s="152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M79" s="152" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N79" s="151" t="n">
         <v>40850.0</v>
@@ -7808,7 +7811,7 @@
         <v>38706.0</v>
       </c>
       <c r="P79" s="152" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q79" s="152" t="s">
         <v>28</v>
@@ -7819,10 +7822,10 @@
         <v>76.0</v>
       </c>
       <c r="B80" s="154" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C80" s="154" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D80" s="153" t="n">
         <v>43685.0</v>
@@ -7831,13 +7834,13 @@
         <v>30</v>
       </c>
       <c r="F80" s="154" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G80" s="154" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H80" s="154" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I80" s="154" t="s">
         <v>22</v>
@@ -7849,10 +7852,10 @@
         <v>78</v>
       </c>
       <c r="L80" s="154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M80" s="154" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N80" s="153" t="n">
         <v>41165.0</v>
@@ -7861,7 +7864,7 @@
         <v>42048.0</v>
       </c>
       <c r="P80" s="154" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q80" s="154" t="s">
         <v>28</v>
@@ -7872,10 +7875,10 @@
         <v>77.0</v>
       </c>
       <c r="B81" s="156" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C81" s="156" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D81" s="155" t="n">
         <v>42073.0</v>
@@ -7884,13 +7887,13 @@
         <v>30</v>
       </c>
       <c r="F81" s="156" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G81" s="156" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H81" s="156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I81" s="156" t="s">
         <v>22</v>
@@ -7902,10 +7905,10 @@
         <v>78</v>
       </c>
       <c r="L81" s="156" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M81" s="156" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N81" s="155" t="n">
         <v>36836.0</v>
@@ -7914,7 +7917,7 @@
         <v>38815.0</v>
       </c>
       <c r="P81" s="156" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q81" s="156" t="s">
         <v>28</v>
@@ -7925,10 +7928,10 @@
         <v>78.0</v>
       </c>
       <c r="B82" s="158" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C82" s="158" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D82" s="157" t="n">
         <v>35681.0</v>
@@ -7937,13 +7940,13 @@
         <v>30</v>
       </c>
       <c r="F82" s="158" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G82" s="158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H82" s="158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I82" s="158" t="s">
         <v>22</v>
@@ -7952,13 +7955,13 @@
         <v>23</v>
       </c>
       <c r="K82" s="158" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L82" s="158" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M82" s="158" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N82" s="157" t="n">
         <v>40677.0</v>
@@ -7967,7 +7970,7 @@
         <v>40095.0</v>
       </c>
       <c r="P82" s="158" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q82" s="158" t="s">
         <v>28</v>
@@ -7978,10 +7981,10 @@
         <v>79.0</v>
       </c>
       <c r="B83" s="160" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C83" s="160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D83" s="159" t="n">
         <v>31951.0</v>
@@ -7990,13 +7993,13 @@
         <v>30</v>
       </c>
       <c r="F83" s="160" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G83" s="160" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H83" s="160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I83" s="160" t="s">
         <v>22</v>
@@ -8005,13 +8008,13 @@
         <v>23</v>
       </c>
       <c r="K83" s="160" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L83" s="160" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M83" s="160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N83" s="159" t="n">
         <v>39605.0</v>
@@ -8020,7 +8023,7 @@
         <v>41285.0</v>
       </c>
       <c r="P83" s="160" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q83" s="160" t="s">
         <v>28</v>
@@ -8031,10 +8034,10 @@
         <v>80.0</v>
       </c>
       <c r="B84" s="162" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C84" s="162" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D84" s="161" t="n">
         <v>35316.0</v>
@@ -8043,13 +8046,13 @@
         <v>30</v>
       </c>
       <c r="F84" s="162" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G84" s="162" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H84" s="162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I84" s="162" t="s">
         <v>22</v>
@@ -8058,13 +8061,13 @@
         <v>23</v>
       </c>
       <c r="K84" s="162" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L84" s="162" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M84" s="162" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N84" s="161" t="n">
         <v>41530.0</v>
@@ -8073,7 +8076,7 @@
         <v>39696.0</v>
       </c>
       <c r="P84" s="162" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q84" s="162" t="s">
         <v>28</v>
@@ -8084,10 +8087,10 @@
         <v>81.0</v>
       </c>
       <c r="B85" s="164" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C85" s="164" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D85" s="163" t="n">
         <v>30153.0</v>
@@ -8096,13 +8099,13 @@
         <v>30</v>
       </c>
       <c r="F85" s="164" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G85" s="164" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H85" s="164" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I85" s="164" t="s">
         <v>22</v>
@@ -8111,13 +8114,13 @@
         <v>23</v>
       </c>
       <c r="K85" s="164" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L85" s="164" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M85" s="164" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N85" s="163" t="n">
         <v>38357.0</v>
@@ -8126,7 +8129,7 @@
         <v>41233.0</v>
       </c>
       <c r="P85" s="164" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q85" s="164" t="s">
         <v>28</v>
@@ -8137,10 +8140,10 @@
         <v>82.0</v>
       </c>
       <c r="B86" s="166" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C86" s="166" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D86" s="165" t="n">
         <v>29423.0</v>
@@ -8149,13 +8152,13 @@
         <v>30</v>
       </c>
       <c r="F86" s="166" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G86" s="166" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H86" s="166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I86" s="166" t="s">
         <v>22</v>
@@ -8164,13 +8167,13 @@
         <v>23</v>
       </c>
       <c r="K86" s="166" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L86" s="166" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M86" s="166" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N86" s="165" t="n">
         <v>39356.0</v>
@@ -8179,7 +8182,7 @@
         <v>42283.0</v>
       </c>
       <c r="P86" s="166" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q86" s="166" t="s">
         <v>28</v>
@@ -8190,10 +8193,10 @@
         <v>83.0</v>
       </c>
       <c r="B87" s="168" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C87" s="168" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D87" s="167" t="n">
         <v>37953.0</v>
@@ -8202,13 +8205,13 @@
         <v>30</v>
       </c>
       <c r="F87" s="168" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G87" s="168" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H87" s="168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I87" s="168" t="s">
         <v>22</v>
@@ -8217,13 +8220,13 @@
         <v>23</v>
       </c>
       <c r="K87" s="168" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L87" s="168" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M87" s="168" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N87" s="167" t="n">
         <v>38062.0</v>
@@ -8232,7 +8235,7 @@
         <v>42055.0</v>
       </c>
       <c r="P87" s="168" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q87" s="168" t="s">
         <v>28</v>
@@ -8243,10 +8246,10 @@
         <v>84.0</v>
       </c>
       <c r="B88" s="170" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C88" s="170" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D88" s="169" t="n">
         <v>25601.0</v>
@@ -8255,13 +8258,13 @@
         <v>30</v>
       </c>
       <c r="F88" s="170" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G88" s="170" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H88" s="170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I88" s="170" t="s">
         <v>22</v>
@@ -8270,13 +8273,13 @@
         <v>23</v>
       </c>
       <c r="K88" s="170" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L88" s="170" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M88" s="170" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N88" s="169" t="n">
         <v>40198.0</v>
@@ -8285,7 +8288,7 @@
         <v>37000.0</v>
       </c>
       <c r="P88" s="170" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q88" s="170" t="s">
         <v>28</v>
@@ -8296,10 +8299,10 @@
         <v>85.0</v>
       </c>
       <c r="B89" s="172" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C89" s="172" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D89" s="171" t="n">
         <v>35175.0</v>
@@ -8308,13 +8311,13 @@
         <v>30</v>
       </c>
       <c r="F89" s="172" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G89" s="172" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H89" s="172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I89" s="172" t="s">
         <v>22</v>
@@ -8323,13 +8326,13 @@
         <v>23</v>
       </c>
       <c r="K89" s="172" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L89" s="172" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M89" s="172" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N89" s="171" t="n">
         <v>40114.0</v>
@@ -8338,7 +8341,7 @@
         <v>42497.0</v>
       </c>
       <c r="P89" s="172" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q89" s="172" t="s">
         <v>28</v>
@@ -8349,10 +8352,10 @@
         <v>86.0</v>
       </c>
       <c r="B90" s="174" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C90" s="174" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D90" s="173" t="n">
         <v>34118.0</v>
@@ -8361,13 +8364,13 @@
         <v>30</v>
       </c>
       <c r="F90" s="174" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G90" s="174" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H90" s="174" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I90" s="174" t="s">
         <v>22</v>
@@ -8376,13 +8379,13 @@
         <v>23</v>
       </c>
       <c r="K90" s="174" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L90" s="174" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M90" s="174" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N90" s="173" t="n">
         <v>41413.0</v>
@@ -8391,7 +8394,7 @@
         <v>37231.0</v>
       </c>
       <c r="P90" s="174" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q90" s="174" t="s">
         <v>28</v>
@@ -8402,10 +8405,10 @@
         <v>87.0</v>
       </c>
       <c r="B91" s="176" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C91" s="176" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D91" s="175" t="n">
         <v>26633.0</v>
@@ -8414,13 +8417,13 @@
         <v>30</v>
       </c>
       <c r="F91" s="176" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G91" s="176" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H91" s="176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I91" s="176" t="s">
         <v>22</v>
@@ -8429,13 +8432,13 @@
         <v>23</v>
       </c>
       <c r="K91" s="176" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L91" s="176" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M91" s="176" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N91" s="175" t="n">
         <v>41358.0</v>
@@ -8444,7 +8447,7 @@
         <v>41659.0</v>
       </c>
       <c r="P91" s="176" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q91" s="176" t="s">
         <v>28</v>
@@ -8455,10 +8458,10 @@
         <v>88.0</v>
       </c>
       <c r="B92" s="178" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C92" s="178" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D92" s="177" t="n">
         <v>23120.0</v>
@@ -8467,13 +8470,13 @@
         <v>30</v>
       </c>
       <c r="F92" s="178" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G92" s="178" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H92" s="178" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I92" s="178" t="s">
         <v>22</v>
@@ -8482,13 +8485,13 @@
         <v>23</v>
       </c>
       <c r="K92" s="178" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L92" s="178" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M92" s="178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N92" s="177" t="n">
         <v>36711.0</v>
@@ -8497,7 +8500,7 @@
         <v>39256.0</v>
       </c>
       <c r="P92" s="178" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q92" s="178" t="s">
         <v>28</v>
@@ -8508,10 +8511,10 @@
         <v>89.0</v>
       </c>
       <c r="B93" s="180" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C93" s="180" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D93" s="179" t="n">
         <v>28267.0</v>
@@ -8520,13 +8523,13 @@
         <v>30</v>
       </c>
       <c r="F93" s="180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G93" s="180" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H93" s="180" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I93" s="180" t="s">
         <v>22</v>
@@ -8535,13 +8538,13 @@
         <v>23</v>
       </c>
       <c r="K93" s="180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L93" s="180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M93" s="180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N93" s="179" t="n">
         <v>39997.0</v>
@@ -8550,7 +8553,7 @@
         <v>40191.0</v>
       </c>
       <c r="P93" s="180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q93" s="180" t="s">
         <v>28</v>
@@ -8561,10 +8564,10 @@
         <v>90.0</v>
       </c>
       <c r="B94" s="182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C94" s="182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D94" s="181" t="n">
         <v>35157.0</v>
@@ -8573,28 +8576,28 @@
         <v>30</v>
       </c>
       <c r="F94" s="182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G94" s="182" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H94" s="182" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I94" s="182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J94" s="182" t="s">
         <v>23</v>
       </c>
       <c r="K94" s="182" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L94" s="182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M94" s="182" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N94" s="181" t="n">
         <v>40917.0</v>
@@ -8603,7 +8606,7 @@
         <v>40440.0</v>
       </c>
       <c r="P94" s="182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q94" s="182" t="s">
         <v>28</v>
@@ -8614,10 +8617,10 @@
         <v>91.0</v>
       </c>
       <c r="B95" s="184" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C95" s="184" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D95" s="183" t="n">
         <v>26857.0</v>
@@ -8626,13 +8629,13 @@
         <v>30</v>
       </c>
       <c r="F95" s="184" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G95" s="184" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H95" s="184" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I95" s="184" t="s">
         <v>22</v>
@@ -8641,13 +8644,13 @@
         <v>23</v>
       </c>
       <c r="K95" s="184" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L95" s="184" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M95" s="184" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N95" s="183" t="n">
         <v>43737.0</v>
@@ -8656,7 +8659,7 @@
         <v>42774.0</v>
       </c>
       <c r="P95" s="184" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q95" s="184" t="s">
         <v>28</v>
@@ -8667,10 +8670,10 @@
         <v>92.0</v>
       </c>
       <c r="B96" s="186" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C96" s="186" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D96" s="185" t="n">
         <v>37889.0</v>
@@ -8679,13 +8682,13 @@
         <v>30</v>
       </c>
       <c r="F96" s="186" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G96" s="186" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H96" s="186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I96" s="186" t="s">
         <v>22</v>
@@ -8694,13 +8697,13 @@
         <v>23</v>
       </c>
       <c r="K96" s="186" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L96" s="186" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M96" s="186" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N96" s="185" t="n">
         <v>37793.0</v>
@@ -8709,7 +8712,7 @@
         <v>42442.0</v>
       </c>
       <c r="P96" s="186" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q96" s="186" t="s">
         <v>28</v>
@@ -8720,10 +8723,10 @@
         <v>93.0</v>
       </c>
       <c r="B97" s="188" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C97" s="188" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D97" s="187" t="n">
         <v>33309.0</v>
@@ -8732,13 +8735,13 @@
         <v>30</v>
       </c>
       <c r="F97" s="188" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G97" s="188" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H97" s="188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I97" s="188" t="s">
         <v>22</v>
@@ -8747,13 +8750,13 @@
         <v>23</v>
       </c>
       <c r="K97" s="188" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L97" s="188" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M97" s="188" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N97" s="187" t="n">
         <v>41658.0</v>
@@ -8762,7 +8765,7 @@
         <v>41766.0</v>
       </c>
       <c r="P97" s="188" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q97" s="188" t="s">
         <v>28</v>
@@ -8773,10 +8776,10 @@
         <v>94.0</v>
       </c>
       <c r="B98" s="190" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C98" s="190" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D98" s="189" t="n">
         <v>35571.0</v>
@@ -8785,13 +8788,13 @@
         <v>30</v>
       </c>
       <c r="F98" s="190" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G98" s="190" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H98" s="190" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I98" s="190" t="s">
         <v>22</v>
@@ -8800,13 +8803,13 @@
         <v>23</v>
       </c>
       <c r="K98" s="190" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L98" s="190" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M98" s="190" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N98" s="189" t="n">
         <v>39384.0</v>
@@ -8815,7 +8818,7 @@
         <v>39068.0</v>
       </c>
       <c r="P98" s="190" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q98" s="190" t="s">
         <v>28</v>
@@ -8826,10 +8829,10 @@
         <v>95.0</v>
       </c>
       <c r="B99" s="192" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C99" s="192" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D99" s="191" t="n">
         <v>27255.0</v>
@@ -8838,28 +8841,28 @@
         <v>30</v>
       </c>
       <c r="F99" s="192" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G99" s="192" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H99" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I99" s="192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J99" s="192" t="s">
         <v>23</v>
       </c>
       <c r="K99" s="192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L99" s="192" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M99" s="192" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N99" s="191" t="n">
         <v>37961.0</v>
@@ -8868,7 +8871,7 @@
         <v>39829.0</v>
       </c>
       <c r="P99" s="192" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q99" s="192" t="s">
         <v>28</v>
@@ -8879,10 +8882,10 @@
         <v>96.0</v>
       </c>
       <c r="B100" s="194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C100" s="194" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D100" s="193" t="n">
         <v>32849.0</v>
@@ -8891,13 +8894,13 @@
         <v>30</v>
       </c>
       <c r="F100" s="194" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G100" s="194" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H100" s="194" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I100" s="194" t="s">
         <v>22</v>
@@ -8906,13 +8909,13 @@
         <v>23</v>
       </c>
       <c r="K100" s="194" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L100" s="194" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M100" s="194" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N100" s="193" t="n">
         <v>36897.0</v>
@@ -8921,7 +8924,7 @@
         <v>42226.0</v>
       </c>
       <c r="P100" s="194" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q100" s="194" t="s">
         <v>28</v>
@@ -8932,10 +8935,10 @@
         <v>97.0</v>
       </c>
       <c r="B101" s="196" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C101" s="196" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D101" s="195" t="n">
         <v>36126.0</v>
@@ -8944,13 +8947,13 @@
         <v>30</v>
       </c>
       <c r="F101" s="196" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G101" s="196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H101" s="196" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I101" s="196" t="s">
         <v>22</v>
@@ -8959,13 +8962,13 @@
         <v>23</v>
       </c>
       <c r="K101" s="196" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L101" s="196" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M101" s="196" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N101" s="195" t="n">
         <v>41330.0</v>
@@ -8974,7 +8977,7 @@
         <v>41426.0</v>
       </c>
       <c r="P101" s="196" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q101" s="196" t="s">
         <v>28</v>
@@ -8985,10 +8988,10 @@
         <v>98.0</v>
       </c>
       <c r="B102" s="198" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C102" s="198" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D102" s="197" t="n">
         <v>26775.0</v>
@@ -8997,13 +9000,13 @@
         <v>30</v>
       </c>
       <c r="F102" s="198" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G102" s="198" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H102" s="198" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I102" s="198" t="s">
         <v>22</v>
@@ -9012,13 +9015,13 @@
         <v>23</v>
       </c>
       <c r="K102" s="198" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L102" s="198" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M102" s="198" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N102" s="197" t="n">
         <v>37806.0</v>
@@ -9027,7 +9030,7 @@
         <v>36802.0</v>
       </c>
       <c r="P102" s="198" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q102" s="198" t="s">
         <v>28</v>
@@ -9038,10 +9041,10 @@
         <v>99.0</v>
       </c>
       <c r="B103" s="200" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C103" s="200" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D103" s="199" t="n">
         <v>22903.0</v>
@@ -9050,13 +9053,13 @@
         <v>30</v>
       </c>
       <c r="F103" s="200" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G103" s="200" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H103" s="200" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I103" s="200" t="s">
         <v>22</v>
@@ -9065,13 +9068,13 @@
         <v>23</v>
       </c>
       <c r="K103" s="200" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L103" s="200" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M103" s="200" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N103" s="199" t="n">
         <v>38864.0</v>
@@ -9080,7 +9083,7 @@
         <v>38213.0</v>
       </c>
       <c r="P103" s="200" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q103" s="200" t="s">
         <v>28</v>
@@ -9091,10 +9094,10 @@
         <v>100.0</v>
       </c>
       <c r="B104" s="202" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C104" s="202" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D104" s="201" t="n">
         <v>23903.0</v>
@@ -9103,13 +9106,13 @@
         <v>30</v>
       </c>
       <c r="F104" s="202" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G104" s="202" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H104" s="202" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I104" s="202" t="s">
         <v>22</v>
@@ -9118,13 +9121,13 @@
         <v>23</v>
       </c>
       <c r="K104" s="202" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L104" s="202" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M104" s="202" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N104" s="201" t="n">
         <v>41216.0</v>
@@ -9133,7 +9136,7 @@
         <v>41887.0</v>
       </c>
       <c r="P104" s="202" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q104" s="202" t="s">
         <v>28</v>
@@ -9144,10 +9147,10 @@
         <v>101.0</v>
       </c>
       <c r="B105" s="204" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C105" s="204" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D105" s="203" t="n">
         <v>26136.0</v>
@@ -9156,13 +9159,13 @@
         <v>30</v>
       </c>
       <c r="F105" s="204" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G105" s="204" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H105" s="204" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I105" s="204" t="s">
         <v>22</v>
@@ -9171,13 +9174,13 @@
         <v>23</v>
       </c>
       <c r="K105" s="204" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L105" s="204" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M105" s="204" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N105" s="203" t="n">
         <v>42485.0</v>
@@ -9186,7 +9189,7 @@
         <v>41526.0</v>
       </c>
       <c r="P105" s="204" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q105" s="204" t="s">
         <v>28</v>
@@ -9197,10 +9200,10 @@
         <v>102.0</v>
       </c>
       <c r="B106" s="206" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C106" s="206" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D106" s="205" t="n">
         <v>26960.0</v>
@@ -9209,13 +9212,13 @@
         <v>30</v>
       </c>
       <c r="F106" s="206" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G106" s="206" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H106" s="206" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I106" s="206" t="s">
         <v>22</v>
@@ -9224,13 +9227,13 @@
         <v>23</v>
       </c>
       <c r="K106" s="206" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L106" s="206" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M106" s="206" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N106" s="205" t="n">
         <v>42531.0</v>
@@ -9239,7 +9242,7 @@
         <v>40878.0</v>
       </c>
       <c r="P106" s="206" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q106" s="206" t="s">
         <v>28</v>
@@ -9250,10 +9253,10 @@
         <v>103.0</v>
       </c>
       <c r="B107" s="208" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C107" s="208" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D107" s="207" t="n">
         <v>22578.0</v>
@@ -9262,13 +9265,13 @@
         <v>30</v>
       </c>
       <c r="F107" s="208" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G107" s="208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H107" s="208" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I107" s="208" t="s">
         <v>22</v>
@@ -9277,13 +9280,13 @@
         <v>23</v>
       </c>
       <c r="K107" s="208" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L107" s="208" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M107" s="208" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N107" s="207" t="n">
         <v>39426.0</v>
@@ -9292,7 +9295,7 @@
         <v>37601.0</v>
       </c>
       <c r="P107" s="208" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q107" s="208" t="s">
         <v>28</v>
@@ -9303,10 +9306,10 @@
         <v>104.0</v>
       </c>
       <c r="B108" s="210" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C108" s="210" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D108" s="209" t="n">
         <v>35149.0</v>
@@ -9315,13 +9318,13 @@
         <v>30</v>
       </c>
       <c r="F108" s="210" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G108" s="210" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H108" s="210" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I108" s="210" t="s">
         <v>22</v>
@@ -9330,13 +9333,13 @@
         <v>23</v>
       </c>
       <c r="K108" s="210" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L108" s="210" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M108" s="210" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N108" s="209" t="n">
         <v>43291.0</v>
@@ -9345,7 +9348,7 @@
         <v>43103.0</v>
       </c>
       <c r="P108" s="210" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q108" s="210" t="s">
         <v>28</v>
@@ -9356,10 +9359,10 @@
         <v>105.0</v>
       </c>
       <c r="B109" s="212" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C109" s="212" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D109" s="211" t="n">
         <v>34522.0</v>
@@ -9368,13 +9371,13 @@
         <v>30</v>
       </c>
       <c r="F109" s="212" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G109" s="212" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H109" s="212" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I109" s="212" t="s">
         <v>22</v>
@@ -9383,13 +9386,13 @@
         <v>23</v>
       </c>
       <c r="K109" s="212" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L109" s="212" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M109" s="212" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N109" s="211" t="n">
         <v>39301.0</v>
@@ -9398,7 +9401,7 @@
         <v>41713.0</v>
       </c>
       <c r="P109" s="212" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q109" s="212" t="s">
         <v>28</v>
@@ -9409,10 +9412,10 @@
         <v>106.0</v>
       </c>
       <c r="B110" s="214" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C110" s="214" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D110" s="213" t="n">
         <v>32844.0</v>
@@ -9421,13 +9424,13 @@
         <v>30</v>
       </c>
       <c r="F110" s="214" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G110" s="214" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H110" s="214" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I110" s="214" t="s">
         <v>22</v>
@@ -9436,13 +9439,13 @@
         <v>23</v>
       </c>
       <c r="K110" s="214" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L110" s="214" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M110" s="214" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N110" s="213" t="n">
         <v>38130.0</v>
@@ -9451,7 +9454,7 @@
         <v>40865.0</v>
       </c>
       <c r="P110" s="214" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q110" s="214" t="s">
         <v>28</v>
@@ -9462,10 +9465,10 @@
         <v>107.0</v>
       </c>
       <c r="B111" s="216" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C111" s="216" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D111" s="215" t="n">
         <v>34559.0</v>
@@ -9474,13 +9477,13 @@
         <v>30</v>
       </c>
       <c r="F111" s="216" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G111" s="216" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H111" s="216" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I111" s="216" t="s">
         <v>22</v>
@@ -9489,13 +9492,13 @@
         <v>23</v>
       </c>
       <c r="K111" s="216" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L111" s="216" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M111" s="216" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N111" s="215" t="n">
         <v>40623.0</v>
@@ -9504,7 +9507,7 @@
         <v>37688.0</v>
       </c>
       <c r="P111" s="216" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q111" s="216" t="s">
         <v>28</v>
@@ -9515,10 +9518,10 @@
         <v>108.0</v>
       </c>
       <c r="B112" s="218" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C112" s="218" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D112" s="217" t="n">
         <v>21144.0</v>
@@ -9527,13 +9530,13 @@
         <v>18</v>
       </c>
       <c r="F112" s="218" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G112" s="218" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H112" s="218" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I112" s="218" t="s">
         <v>22</v>
@@ -9542,13 +9545,13 @@
         <v>23</v>
       </c>
       <c r="K112" s="218" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L112" s="218" t="s">
         <v>108</v>
       </c>
       <c r="M112" s="218" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N112" s="217" t="n">
         <v>38709.0</v>
@@ -9557,7 +9560,7 @@
         <v>43225.0</v>
       </c>
       <c r="P112" s="218" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q112" s="218" t="s">
         <v>28</v>
@@ -9568,10 +9571,10 @@
         <v>109.0</v>
       </c>
       <c r="B113" s="220" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C113" s="220" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D113" s="219" t="n">
         <v>15389.0</v>
@@ -9580,13 +9583,13 @@
         <v>18</v>
       </c>
       <c r="F113" s="220" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G113" s="220" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H113" s="220" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I113" s="220" t="s">
         <v>22</v>
@@ -9595,13 +9598,13 @@
         <v>23</v>
       </c>
       <c r="K113" s="220" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L113" s="220" t="s">
         <v>108</v>
       </c>
       <c r="M113" s="220" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N113" s="219" t="n">
         <v>41035.0</v>
@@ -9610,7 +9613,7 @@
         <v>40601.0</v>
       </c>
       <c r="P113" s="220" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q113" s="220" t="s">
         <v>28</v>
@@ -9621,10 +9624,10 @@
         <v>110.0</v>
       </c>
       <c r="B114" s="222" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C114" s="222" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D114" s="221" t="n">
         <v>12175.0</v>
@@ -9633,13 +9636,13 @@
         <v>18</v>
       </c>
       <c r="F114" s="222" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G114" s="222" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H114" s="222" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I114" s="222" t="s">
         <v>22</v>
@@ -9648,13 +9651,13 @@
         <v>23</v>
       </c>
       <c r="K114" s="222" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L114" s="222" t="s">
         <v>108</v>
       </c>
       <c r="M114" s="222" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N114" s="221" t="n">
         <v>36962.0</v>
@@ -9663,7 +9666,7 @@
         <v>42364.0</v>
       </c>
       <c r="P114" s="222" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q114" s="222" t="s">
         <v>28</v>
@@ -9674,10 +9677,10 @@
         <v>111.0</v>
       </c>
       <c r="B115" s="224" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C115" s="224" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D115" s="223" t="n">
         <v>17541.0</v>
@@ -9686,28 +9689,28 @@
         <v>18</v>
       </c>
       <c r="F115" s="224" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G115" s="224" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H115" s="224" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I115" s="224" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J115" s="224" t="s">
         <v>23</v>
       </c>
       <c r="K115" s="224" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L115" s="224" t="s">
         <v>108</v>
       </c>
       <c r="M115" s="224" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N115" s="223" t="n">
         <v>43646.0</v>
@@ -9716,7 +9719,7 @@
         <v>37610.0</v>
       </c>
       <c r="P115" s="224" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q115" s="224" t="s">
         <v>28</v>
@@ -9727,10 +9730,10 @@
         <v>112.0</v>
       </c>
       <c r="B116" s="226" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C116" s="226" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D116" s="225" t="n">
         <v>20006.0</v>
@@ -9739,28 +9742,28 @@
         <v>18</v>
       </c>
       <c r="F116" s="226" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G116" s="226" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H116" s="226" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I116" s="226" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J116" s="226" t="s">
         <v>23</v>
       </c>
       <c r="K116" s="226" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L116" s="226" t="s">
         <v>108</v>
       </c>
       <c r="M116" s="226" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N116" s="225" t="n">
         <v>42469.0</v>
@@ -9769,7 +9772,7 @@
         <v>37345.0</v>
       </c>
       <c r="P116" s="226" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q116" s="226" t="s">
         <v>28</v>
@@ -9780,10 +9783,10 @@
         <v>113.0</v>
       </c>
       <c r="B117" s="228" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C117" s="228" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D117" s="227" t="n">
         <v>18080.0</v>
@@ -9792,13 +9795,13 @@
         <v>18</v>
       </c>
       <c r="F117" s="228" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G117" s="228" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H117" s="228" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I117" s="228" t="s">
         <v>22</v>
@@ -9807,13 +9810,13 @@
         <v>23</v>
       </c>
       <c r="K117" s="228" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L117" s="228" t="s">
         <v>108</v>
       </c>
       <c r="M117" s="228" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N117" s="227" t="n">
         <v>43665.0</v>
@@ -9822,7 +9825,7 @@
         <v>43230.0</v>
       </c>
       <c r="P117" s="228" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q117" s="228" t="s">
         <v>28</v>
@@ -9833,10 +9836,10 @@
         <v>114.0</v>
       </c>
       <c r="B118" s="230" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C118" s="230" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D118" s="229" t="n">
         <v>14825.0</v>
@@ -9845,13 +9848,13 @@
         <v>18</v>
       </c>
       <c r="F118" s="230" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G118" s="230" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H118" s="230" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I118" s="230" t="s">
         <v>22</v>
@@ -9860,13 +9863,13 @@
         <v>23</v>
       </c>
       <c r="K118" s="230" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L118" s="230" t="s">
         <v>108</v>
       </c>
       <c r="M118" s="230" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N118" s="229" t="n">
         <v>41824.0</v>
@@ -9875,7 +9878,7 @@
         <v>41051.0</v>
       </c>
       <c r="P118" s="230" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q118" s="230" t="s">
         <v>28</v>
@@ -9886,10 +9889,10 @@
         <v>115.0</v>
       </c>
       <c r="B119" s="232" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C119" s="232" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D119" s="231" t="n">
         <v>15280.0</v>
@@ -9898,13 +9901,13 @@
         <v>18</v>
       </c>
       <c r="F119" s="232" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G119" s="232" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H119" s="232" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I119" s="232" t="s">
         <v>22</v>
@@ -9913,13 +9916,13 @@
         <v>23</v>
       </c>
       <c r="K119" s="232" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L119" s="232" t="s">
         <v>108</v>
       </c>
       <c r="M119" s="232" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N119" s="231" t="n">
         <v>38271.0</v>
@@ -9928,7 +9931,7 @@
         <v>41129.0</v>
       </c>
       <c r="P119" s="232" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q119" s="232" t="s">
         <v>28</v>
@@ -9939,10 +9942,10 @@
         <v>116.0</v>
       </c>
       <c r="B120" s="234" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C120" s="234" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D120" s="233" t="n">
         <v>19338.0</v>
@@ -9951,13 +9954,13 @@
         <v>18</v>
       </c>
       <c r="F120" s="234" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G120" s="234" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H120" s="234" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I120" s="234" t="s">
         <v>22</v>
@@ -9966,13 +9969,13 @@
         <v>23</v>
       </c>
       <c r="K120" s="234" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L120" s="234" t="s">
         <v>108</v>
       </c>
       <c r="M120" s="234" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N120" s="233" t="n">
         <v>39773.0</v>
@@ -9981,7 +9984,7 @@
         <v>37734.0</v>
       </c>
       <c r="P120" s="234" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q120" s="234" t="s">
         <v>28</v>
@@ -9992,10 +9995,10 @@
         <v>117.0</v>
       </c>
       <c r="B121" s="236" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C121" s="236" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D121" s="235" t="n">
         <v>18485.0</v>
@@ -10004,28 +10007,28 @@
         <v>18</v>
       </c>
       <c r="F121" s="236" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G121" s="236" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H121" s="236" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I121" s="236" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J121" s="236" t="s">
         <v>23</v>
       </c>
       <c r="K121" s="236" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L121" s="236" t="s">
         <v>108</v>
       </c>
       <c r="M121" s="236" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N121" s="235" t="n">
         <v>36750.0</v>
@@ -10034,7 +10037,7 @@
         <v>43180.0</v>
       </c>
       <c r="P121" s="236" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q121" s="236" t="s">
         <v>28</v>
@@ -10045,10 +10048,10 @@
         <v>118.0</v>
       </c>
       <c r="B122" s="238" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C122" s="238" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D122" s="237" t="n">
         <v>21663.0</v>
@@ -10057,13 +10060,13 @@
         <v>18</v>
       </c>
       <c r="F122" s="238" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G122" s="238" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H122" s="238" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I122" s="238" t="s">
         <v>22</v>
@@ -10072,13 +10075,13 @@
         <v>23</v>
       </c>
       <c r="K122" s="238" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L122" s="238" t="s">
         <v>108</v>
       </c>
       <c r="M122" s="238" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N122" s="237" t="n">
         <v>37554.0</v>
@@ -10087,7 +10090,7 @@
         <v>39774.0</v>
       </c>
       <c r="P122" s="238" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q122" s="238" t="s">
         <v>28</v>
@@ -10098,10 +10101,10 @@
         <v>119.0</v>
       </c>
       <c r="B123" s="240" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C123" s="240" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D123" s="239" t="n">
         <v>7988.0</v>
@@ -10110,13 +10113,13 @@
         <v>18</v>
       </c>
       <c r="F123" s="240" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G123" s="240" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H123" s="240" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I123" s="240" t="s">
         <v>22</v>
@@ -10125,13 +10128,13 @@
         <v>23</v>
       </c>
       <c r="K123" s="240" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L123" s="240" t="s">
         <v>108</v>
       </c>
       <c r="M123" s="240" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N123" s="239" t="n">
         <v>43553.0</v>
@@ -10140,7 +10143,7 @@
         <v>40019.0</v>
       </c>
       <c r="P123" s="240" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q123" s="240" t="s">
         <v>28</v>
@@ -10151,10 +10154,10 @@
         <v>120.0</v>
       </c>
       <c r="B124" s="242" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C124" s="242" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D124" s="241" t="n">
         <v>13168.0</v>
@@ -10163,13 +10166,13 @@
         <v>18</v>
       </c>
       <c r="F124" s="242" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G124" s="242" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H124" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I124" s="242" t="s">
         <v>22</v>
@@ -10178,13 +10181,13 @@
         <v>23</v>
       </c>
       <c r="K124" s="242" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L124" s="242" t="s">
         <v>108</v>
       </c>
       <c r="M124" s="242" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N124" s="241" t="n">
         <v>37026.0</v>
@@ -10193,7 +10196,7 @@
         <v>41492.0</v>
       </c>
       <c r="P124" s="242" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q124" s="242" t="s">
         <v>28</v>
@@ -10204,10 +10207,10 @@
         <v>121.0</v>
       </c>
       <c r="B125" s="244" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C125" s="244" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D125" s="243" t="n">
         <v>20914.0</v>
@@ -10216,13 +10219,13 @@
         <v>18</v>
       </c>
       <c r="F125" s="244" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G125" s="244" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H125" s="244" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I125" s="244" t="s">
         <v>22</v>
@@ -10231,13 +10234,13 @@
         <v>23</v>
       </c>
       <c r="K125" s="244" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L125" s="244" t="s">
         <v>108</v>
       </c>
       <c r="M125" s="244" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N125" s="243" t="n">
         <v>36943.0</v>
@@ -10246,7 +10249,7 @@
         <v>39225.0</v>
       </c>
       <c r="P125" s="244" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q125" s="244" t="s">
         <v>28</v>
@@ -10257,10 +10260,10 @@
         <v>122.0</v>
       </c>
       <c r="B126" s="246" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C126" s="246" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D126" s="245" t="n">
         <v>8512.0</v>
@@ -10269,13 +10272,13 @@
         <v>18</v>
       </c>
       <c r="F126" s="246" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G126" s="246" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H126" s="246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I126" s="246" t="s">
         <v>22</v>
@@ -10284,13 +10287,13 @@
         <v>23</v>
       </c>
       <c r="K126" s="246" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L126" s="246" t="s">
         <v>108</v>
       </c>
       <c r="M126" s="246" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N126" s="245" t="n">
         <v>37234.0</v>
@@ -10299,7 +10302,7 @@
         <v>37359.0</v>
       </c>
       <c r="P126" s="246" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q126" s="246" t="s">
         <v>28</v>
@@ -10310,10 +10313,10 @@
         <v>123.0</v>
       </c>
       <c r="B127" s="248" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C127" s="248" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D127" s="247" t="n">
         <v>19965.0</v>
@@ -10322,28 +10325,28 @@
         <v>30</v>
       </c>
       <c r="F127" s="248" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G127" s="248" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H127" s="248" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I127" s="248" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J127" s="248" t="s">
         <v>23</v>
       </c>
       <c r="K127" s="248" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L127" s="248" t="s">
         <v>108</v>
       </c>
       <c r="M127" s="248" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N127" s="247" t="n">
         <v>38782.0</v>
@@ -10352,7 +10355,7 @@
         <v>36890.0</v>
       </c>
       <c r="P127" s="248" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q127" s="248" t="s">
         <v>28</v>
@@ -10363,10 +10366,10 @@
         <v>124.0</v>
       </c>
       <c r="B128" s="250" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C128" s="250" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D128" s="249" t="n">
         <v>10162.0</v>
@@ -10375,13 +10378,13 @@
         <v>30</v>
       </c>
       <c r="F128" s="250" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G128" s="250" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H128" s="250" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I128" s="250" t="s">
         <v>22</v>
@@ -10390,13 +10393,13 @@
         <v>23</v>
       </c>
       <c r="K128" s="250" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L128" s="250" t="s">
         <v>108</v>
       </c>
       <c r="M128" s="250" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N128" s="249" t="n">
         <v>41743.0</v>
@@ -10405,7 +10408,7 @@
         <v>38440.0</v>
       </c>
       <c r="P128" s="250" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q128" s="250" t="s">
         <v>28</v>
@@ -10416,10 +10419,10 @@
         <v>125.0</v>
       </c>
       <c r="B129" s="252" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C129" s="252" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D129" s="251" t="n">
         <v>13643.0</v>
@@ -10428,13 +10431,13 @@
         <v>30</v>
       </c>
       <c r="F129" s="252" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G129" s="252" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H129" s="252" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I129" s="252" t="s">
         <v>22</v>
@@ -10443,13 +10446,13 @@
         <v>23</v>
       </c>
       <c r="K129" s="252" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L129" s="252" t="s">
         <v>108</v>
       </c>
       <c r="M129" s="252" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N129" s="251" t="n">
         <v>38379.0</v>
@@ -10458,7 +10461,7 @@
         <v>37865.0</v>
       </c>
       <c r="P129" s="252" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q129" s="252" t="s">
         <v>28</v>
@@ -10469,10 +10472,10 @@
         <v>126.0</v>
       </c>
       <c r="B130" s="254" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C130" s="254" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D130" s="253" t="n">
         <v>21514.0</v>
@@ -10481,28 +10484,28 @@
         <v>30</v>
       </c>
       <c r="F130" s="254" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G130" s="254" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H130" s="254" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I130" s="254" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J130" s="254" t="s">
         <v>23</v>
       </c>
       <c r="K130" s="254" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L130" s="254" t="s">
         <v>108</v>
       </c>
       <c r="M130" s="254" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N130" s="253" t="n">
         <v>36747.0</v>
@@ -10511,7 +10514,7 @@
         <v>42595.0</v>
       </c>
       <c r="P130" s="254" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q130" s="254" t="s">
         <v>28</v>
@@ -10522,10 +10525,10 @@
         <v>127.0</v>
       </c>
       <c r="B131" s="256" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C131" s="256" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D131" s="255" t="n">
         <v>10160.0</v>
@@ -10534,13 +10537,13 @@
         <v>30</v>
       </c>
       <c r="F131" s="256" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G131" s="256" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H131" s="256" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I131" s="256" t="s">
         <v>22</v>
@@ -10549,13 +10552,13 @@
         <v>23</v>
       </c>
       <c r="K131" s="256" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L131" s="256" t="s">
         <v>108</v>
       </c>
       <c r="M131" s="256" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N131" s="255" t="n">
         <v>43298.0</v>
@@ -10564,7 +10567,7 @@
         <v>36846.0</v>
       </c>
       <c r="P131" s="256" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q131" s="256" t="s">
         <v>28</v>
@@ -10575,10 +10578,10 @@
         <v>128.0</v>
       </c>
       <c r="B132" s="258" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C132" s="258" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D132" s="257" t="n">
         <v>20243.0</v>
@@ -10587,13 +10590,13 @@
         <v>30</v>
       </c>
       <c r="F132" s="258" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G132" s="258" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H132" s="258" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I132" s="258" t="s">
         <v>22</v>
@@ -10602,13 +10605,13 @@
         <v>23</v>
       </c>
       <c r="K132" s="258" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L132" s="258" t="s">
         <v>108</v>
       </c>
       <c r="M132" s="258" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N132" s="257" t="n">
         <v>39721.0</v>
@@ -10617,7 +10620,7 @@
         <v>42139.0</v>
       </c>
       <c r="P132" s="258" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q132" s="258" t="s">
         <v>28</v>
@@ -10628,10 +10631,10 @@
         <v>129.0</v>
       </c>
       <c r="B133" s="260" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C133" s="260" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D133" s="259" t="n">
         <v>9544.0</v>
@@ -10640,13 +10643,13 @@
         <v>30</v>
       </c>
       <c r="F133" s="260" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G133" s="260" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H133" s="260" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I133" s="260" t="s">
         <v>22</v>
@@ -10655,13 +10658,13 @@
         <v>23</v>
       </c>
       <c r="K133" s="260" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L133" s="260" t="s">
         <v>108</v>
       </c>
       <c r="M133" s="260" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N133" s="259" t="n">
         <v>38012.0</v>
@@ -10670,7 +10673,7 @@
         <v>37131.0</v>
       </c>
       <c r="P133" s="260" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Q133" s="260" t="s">
         <v>28</v>
@@ -10681,10 +10684,10 @@
         <v>130.0</v>
       </c>
       <c r="B134" s="262" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C134" s="262" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D134" s="261" t="n">
         <v>15184.0</v>
@@ -10693,13 +10696,13 @@
         <v>30</v>
       </c>
       <c r="F134" s="262" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G134" s="262" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H134" s="262" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I134" s="262" t="s">
         <v>22</v>
@@ -10708,13 +10711,13 @@
         <v>23</v>
       </c>
       <c r="K134" s="262" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L134" s="262" t="s">
         <v>108</v>
       </c>
       <c r="M134" s="262" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N134" s="261" t="n">
         <v>40561.0</v>
@@ -10723,7 +10726,7 @@
         <v>37796.0</v>
       </c>
       <c r="P134" s="262" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q134" s="262" t="s">
         <v>28</v>
@@ -10734,10 +10737,10 @@
         <v>131.0</v>
       </c>
       <c r="B135" s="264" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C135" s="264" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D135" s="263" t="n">
         <v>19592.0</v>
@@ -10746,13 +10749,13 @@
         <v>30</v>
       </c>
       <c r="F135" s="264" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G135" s="264" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H135" s="264" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I135" s="264" t="s">
         <v>22</v>
@@ -10761,13 +10764,13 @@
         <v>23</v>
       </c>
       <c r="K135" s="264" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L135" s="264" t="s">
         <v>108</v>
       </c>
       <c r="M135" s="264" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N135" s="263" t="n">
         <v>36721.0</v>
@@ -10776,7 +10779,7 @@
         <v>39828.0</v>
       </c>
       <c r="P135" s="264" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q135" s="264" t="s">
         <v>28</v>
@@ -10787,10 +10790,10 @@
         <v>132.0</v>
       </c>
       <c r="B136" s="266" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C136" s="266" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D136" s="265" t="n">
         <v>16055.0</v>
@@ -10799,13 +10802,13 @@
         <v>30</v>
       </c>
       <c r="F136" s="266" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G136" s="266" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H136" s="266" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I136" s="266" t="s">
         <v>22</v>
@@ -10814,13 +10817,13 @@
         <v>23</v>
       </c>
       <c r="K136" s="266" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L136" s="266" t="s">
         <v>108</v>
       </c>
       <c r="M136" s="266" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N136" s="265" t="n">
         <v>39183.0</v>
@@ -10829,7 +10832,7 @@
         <v>41980.0</v>
       </c>
       <c r="P136" s="266" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q136" s="266" t="s">
         <v>28</v>
@@ -10840,10 +10843,10 @@
         <v>133.0</v>
       </c>
       <c r="B137" s="268" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C137" s="268" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D137" s="267" t="n">
         <v>14632.0</v>
@@ -10852,13 +10855,13 @@
         <v>30</v>
       </c>
       <c r="F137" s="268" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G137" s="268" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H137" s="268" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I137" s="268" t="s">
         <v>22</v>
@@ -10867,13 +10870,13 @@
         <v>23</v>
       </c>
       <c r="K137" s="268" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L137" s="268" t="s">
         <v>108</v>
       </c>
       <c r="M137" s="268" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N137" s="267" t="n">
         <v>42322.0</v>
@@ -10882,7 +10885,7 @@
         <v>41872.0</v>
       </c>
       <c r="P137" s="268" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q137" s="268" t="s">
         <v>28</v>
@@ -10893,10 +10896,10 @@
         <v>134.0</v>
       </c>
       <c r="B138" s="270" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C138" s="270" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D138" s="269" t="n">
         <v>15191.0</v>
@@ -10905,13 +10908,13 @@
         <v>30</v>
       </c>
       <c r="F138" s="270" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G138" s="270" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H138" s="270" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I138" s="270" t="s">
         <v>22</v>
@@ -10920,13 +10923,13 @@
         <v>23</v>
       </c>
       <c r="K138" s="270" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L138" s="270" t="s">
         <v>108</v>
       </c>
       <c r="M138" s="270" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N138" s="269" t="n">
         <v>43377.0</v>
@@ -10935,7 +10938,7 @@
         <v>40534.0</v>
       </c>
       <c r="P138" s="270" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q138" s="270" t="s">
         <v>28</v>
@@ -10946,10 +10949,10 @@
         <v>135.0</v>
       </c>
       <c r="B139" s="272" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C139" s="272" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D139" s="271" t="n">
         <v>15935.0</v>
@@ -10958,13 +10961,13 @@
         <v>30</v>
       </c>
       <c r="F139" s="272" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G139" s="272" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H139" s="272" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I139" s="272" t="s">
         <v>22</v>
@@ -10973,13 +10976,13 @@
         <v>23</v>
       </c>
       <c r="K139" s="272" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L139" s="272" t="s">
         <v>108</v>
       </c>
       <c r="M139" s="272" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N139" s="271" t="n">
         <v>39890.0</v>
@@ -10988,7 +10991,7 @@
         <v>37460.0</v>
       </c>
       <c r="P139" s="272" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Q139" s="272" t="s">
         <v>28</v>
